--- a/Paramètre.xlsx
+++ b/Paramètre.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Hur\da\TAA PHARMACIE\TAA Pharmacie\_Molécule\Thesaurus-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sengulenjessy/Documents/GitHub/Thesaurus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDF2161-8469-4E82-9C8F-FC0B0188420C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EE8B22-CAAB-CE49-BE20-340BF7D509E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DCI" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="Segment_DCI1">#N/A</definedName>
     <definedName name="Segment_DCI2">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -40,6 +40,17 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -2824,9 +2835,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2897,7 +2908,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2908,10 +2919,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2926,9 +2934,6 @@
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3423,7 +3428,7 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{98F595FA-5306-4035-A354-FC5CA17AA70B}" name="Mol" displayName="Mol" ref="A1:M71" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="A1:M71" xr:uid="{98F595FA-5306-4035-A354-FC5CA17AA70B}"/>
-  <sortState ref="A2:M71">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M71">
     <sortCondition ref="A1:A71"/>
   </sortState>
   <tableColumns count="13">
@@ -3450,7 +3455,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F6713156-E9E5-4556-A61E-E5B0D501C9A4}" name="Surv" displayName="Surv" ref="A1:B108" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:B108" xr:uid="{F6713156-E9E5-4556-A61E-E5B0D501C9A4}"/>
-  <sortState ref="A2:B57">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B57">
     <sortCondition ref="A1:A57"/>
   </sortState>
   <tableColumns count="2">
@@ -3464,7 +3469,7 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{16418BD5-17B2-4CD9-81C8-75B71288042D}" name="Indic" displayName="Indic" ref="A1:D368" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D368" xr:uid="{16418BD5-17B2-4CD9-81C8-75B71288042D}"/>
-  <sortState ref="A2:D359">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D359">
     <sortCondition ref="A1:A359"/>
   </sortState>
   <tableColumns count="4">
@@ -3800,272 +3805,272 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -4082,26 +4087,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView topLeftCell="H25" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="22.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" style="8" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="42.75">
+    <row r="1" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -4138,11 +4143,11 @@
       <c r="L1" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="42.75">
+    <row r="2" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -4164,12 +4169,12 @@
       <c r="I2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M2" s="9" t="str">
-        <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
-        <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/177%20lu-dota-octreotate/</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="114">
+      <c r="M2" s="8" t="str">
+        <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/ "</f>
+        <v xml:space="preserve">Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/177%20lu-dota-octreotate/ </v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="112" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -4200,12 +4205,12 @@
       <c r="K3" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="M3" s="9" t="str">
+      <c r="M3" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/abatacept/</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="42.75">
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -4236,12 +4241,12 @@
       <c r="K4" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M4" s="9" t="str">
+      <c r="M4" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/agalsidase%20alfa/</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="42.75">
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4269,12 +4274,12 @@
       <c r="I5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="9" t="str">
+      <c r="M5" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/fiche.pdf"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/agalsidase%20beta/fiche.pdf</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="42.75">
+    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -4305,15 +4310,15 @@
       <c r="K6" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="L6" s="10">
+      <c r="L6" s="9">
         <v>45170</v>
       </c>
-      <c r="M6" s="9" t="str">
+      <c r="M6" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/amphotericine%20b/</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.5">
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -4341,12 +4346,12 @@
       <c r="I7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M7" s="9" t="str">
+      <c r="M7" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/anifrolumab/</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5">
+    <row r="8" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>315</v>
       </c>
@@ -4356,12 +4361,12 @@
       <c r="C8" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M8" s="9" t="str">
+      <c r="M8" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/fiche.pdf"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/aztréonam,avibactam%20sodique/fiche.pdf</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="28.5">
+    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -4389,12 +4394,12 @@
       <c r="I9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="9" t="str">
+      <c r="M9" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/belatacept/</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="28.5">
+    <row r="10" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4422,12 +4427,12 @@
       <c r="I10" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M10" s="9" t="str">
+      <c r="M10" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/belimumab/</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.5">
+    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -4455,12 +4460,12 @@
       <c r="I11" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M11" s="9" t="str">
+      <c r="M11" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/belimumab/</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="28.5">
+    <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>47</v>
       </c>
@@ -4488,12 +4493,12 @@
       <c r="I12" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M12" s="9" t="str">
+      <c r="M12" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/bezlotoxumab/</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="42.75">
+    <row r="13" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -4524,12 +4529,12 @@
       <c r="K13" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M13" s="9" t="str">
+      <c r="M13" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/carglumique%20acide/</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="57">
+    <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -4557,12 +4562,12 @@
       <c r="I14" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="9" t="str">
+      <c r="M14" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/carmustine/</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="28.5">
+    <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -4590,12 +4595,12 @@
       <c r="I15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M15" s="9" t="str">
+      <c r="M15" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/cefiderocol%20sulfate%20tosylate/</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="57">
+    <row r="16" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -4623,12 +4628,12 @@
       <c r="I16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M16" s="9" t="str">
+      <c r="M16" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/ceftazidime%20pentahydrate,avibactam%20sodique/</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="42.75">
+    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -4656,12 +4661,12 @@
       <c r="I17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="9" t="str">
+      <c r="M17" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/cerliponase%20alfa/</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="57">
+    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -4689,12 +4694,12 @@
       <c r="I18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="9" t="str">
+      <c r="M18" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/eculizumab/</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="42.75">
+    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -4722,12 +4727,12 @@
       <c r="I19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M19" s="9" t="str">
+      <c r="M19" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/efgartigimod%20alfa/</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="42.75">
+    <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
@@ -4755,12 +4760,12 @@
       <c r="I20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M20" s="9" t="str">
+      <c r="M20" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/efgartigimod%20alfa/</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="42.75">
+    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -4788,12 +4793,12 @@
       <c r="I21" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M21" s="9" t="str">
+      <c r="M21" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/emicizumab/</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="42.75">
+    <row r="22" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -4821,12 +4826,12 @@
       <c r="I22" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M22" s="9" t="str">
+      <c r="M22" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/emicizumab/</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="42.75">
+    <row r="23" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>15</v>
       </c>
@@ -4854,12 +4859,12 @@
       <c r="I23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M23" s="9" t="str">
+      <c r="M23" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/emicizumab/</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="42.75">
+    <row r="24" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
@@ -4887,12 +4892,12 @@
       <c r="I24" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M24" s="9" t="str">
+      <c r="M24" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/emicizumab/</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="28.5">
+    <row r="25" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -4920,12 +4925,12 @@
       <c r="I25" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M25" s="9" t="str">
+      <c r="M25" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/emicizumab/</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="42.75">
+    <row r="26" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -4953,12 +4958,12 @@
       <c r="I26" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M26" s="9" t="str">
+      <c r="M26" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/emicizumab/</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="42.75">
+    <row r="27" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
@@ -4986,12 +4991,12 @@
       <c r="I27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M27" s="9" t="str">
+      <c r="M27" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/galsulfase/</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="28.5">
+    <row r="28" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -5019,12 +5024,12 @@
       <c r="I28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M28" s="9" t="str">
+      <c r="M28" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/givosiran%20sodique/</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="28.5">
+    <row r="29" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -5052,12 +5057,12 @@
       <c r="I29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M29" s="9" t="str">
+      <c r="M29" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/glucarpidase/</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="42.75">
+    <row r="30" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
@@ -5088,12 +5093,12 @@
       <c r="K30" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M30" s="9" t="str">
+      <c r="M30" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/icatibant%20acetate/</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="42.75">
+    <row r="31" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -5124,12 +5129,12 @@
       <c r="K31" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M31" s="9" t="str">
+      <c r="M31" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/idursulfase/</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="57">
+    <row r="32" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -5157,12 +5162,12 @@
       <c r="I32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M32" s="9" t="str">
+      <c r="M32" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/ig%20anti%20thymocyte%20humain%20(equine)/</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="42.75">
+    <row r="33" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>6</v>
       </c>
@@ -5190,12 +5195,12 @@
       <c r="I33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M33" s="9" t="str">
+      <c r="M33" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/imiglucerase/</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="28.5">
+    <row r="34" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
@@ -5223,12 +5228,12 @@
       <c r="I34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M34" s="9" t="str">
+      <c r="M34" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/inebilizumab/</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="42.75">
+    <row r="35" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -5256,12 +5261,12 @@
       <c r="I35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M35" s="9" t="str">
+      <c r="M35" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/infliximab/</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="42.75">
+    <row r="36" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -5289,12 +5294,12 @@
       <c r="I36" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M36" s="9" t="str">
+      <c r="M36" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/infliximab/</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="71.25">
+    <row r="37" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
@@ -5325,12 +5330,12 @@
       <c r="K37" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="M37" s="9" t="str">
+      <c r="M37" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/isavuconazonium%20sulfate/</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="42.75">
+    <row r="38" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -5358,12 +5363,12 @@
       <c r="I38" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M38" s="9" t="str">
+      <c r="M38" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/lanadelumab/</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="42.75">
+    <row r="39" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -5394,12 +5399,12 @@
       <c r="K39" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="M39" s="9" t="str">
+      <c r="M39" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/laronidase/</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="42.75">
+    <row r="40" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>27</v>
       </c>
@@ -5427,12 +5432,12 @@
       <c r="I40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M40" s="9" t="str">
+      <c r="M40" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/lumasiran%20sodique/</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="42.75">
+    <row r="41" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -5460,12 +5465,12 @@
       <c r="I41" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M41" s="9" t="str">
+      <c r="M41" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/meropenem%20trihydrate,vaborbactam/</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="42.75">
+    <row r="42" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -5496,12 +5501,12 @@
       <c r="K42" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="M42" s="9" t="str">
+      <c r="M42" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/micafungine%20sodique/</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="42.75">
+    <row r="43" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -5532,12 +5537,12 @@
       <c r="K43" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="M43" s="9" t="str">
+      <c r="M43" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/micafungine%20sodique/</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="42.75">
+    <row r="44" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -5568,12 +5573,12 @@
       <c r="K44" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="M44" s="9" t="str">
+      <c r="M44" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/micafungine%20sodique/</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="57">
+    <row r="45" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>37</v>
       </c>
@@ -5601,12 +5606,12 @@
       <c r="I45" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M45" s="9" t="str">
+      <c r="M45" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/natalizumab/</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="42.75">
+    <row r="46" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>37</v>
       </c>
@@ -5634,12 +5639,12 @@
       <c r="I46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M46" s="9" t="str">
+      <c r="M46" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/natalizumab/</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="42.75">
+    <row r="47" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>34</v>
       </c>
@@ -5667,12 +5672,12 @@
       <c r="I47" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M47" s="9" t="str">
+      <c r="M47" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/nusinersen%20sodique/</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="28.5">
+    <row r="48" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>24</v>
       </c>
@@ -5700,12 +5705,12 @@
       <c r="I48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M48" s="9" t="str">
+      <c r="M48" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/ocrelizumab/</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="42.75">
+    <row r="49" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -5733,24 +5738,24 @@
       <c r="I49" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M49" s="9" t="str">
+      <c r="M49" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/olipudase%20alfa/</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="14.25">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M50" s="9" t="str">
+      <c r="M50" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/oritavancine/</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="28.5">
+    <row r="51" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -5778,12 +5783,12 @@
       <c r="I51" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M51" s="9" t="str">
+      <c r="M51" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/patisiran%20sodique/</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="42.75">
+    <row r="52" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>2</v>
       </c>
@@ -5811,12 +5816,12 @@
       <c r="I52" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M52" s="9" t="str">
+      <c r="M52" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/pegcetacoplan/</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="42.75">
+    <row r="53" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>21</v>
       </c>
@@ -5844,12 +5849,12 @@
       <c r="I53" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M53" s="9" t="str">
+      <c r="M53" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/plerixafor/</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="42.75">
+    <row r="54" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
@@ -5877,12 +5882,12 @@
       <c r="I54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M54" s="9" t="str">
+      <c r="M54" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/ravulizumab/</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="42.75">
+    <row r="55" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
@@ -5910,12 +5915,12 @@
       <c r="I55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M55" s="9" t="str">
+      <c r="M55" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/ravulizumab/</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="14.25">
+    <row r="56" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>317</v>
       </c>
@@ -5925,12 +5930,12 @@
       <c r="C56" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M56" s="9" t="str">
+      <c r="M56" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/rezzafungine/</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="28.5">
+    <row r="57" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
@@ -5958,12 +5963,12 @@
       <c r="I57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M57" s="9" t="str">
+      <c r="M57" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/risankizumab/</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="28.5">
+    <row r="58" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>19</v>
       </c>
@@ -5991,12 +5996,12 @@
       <c r="I58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M58" s="9" t="str">
+      <c r="M58" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/rituximab/</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="42.75">
+    <row r="59" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>19</v>
       </c>
@@ -6024,12 +6029,12 @@
       <c r="I59" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="M59" s="9" t="str">
+      <c r="M59" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/rituximab/</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="28.5">
+    <row r="60" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>19</v>
       </c>
@@ -6057,12 +6062,12 @@
       <c r="I60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M60" s="9" t="str">
+      <c r="M60" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/rituximab/</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="57">
+    <row r="61" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>19</v>
       </c>
@@ -6090,12 +6095,12 @@
       <c r="I61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M61" s="9" t="str">
+      <c r="M61" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/rituximab/</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="28.5">
+    <row r="62" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>35</v>
       </c>
@@ -6123,12 +6128,12 @@
       <c r="I62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M62" s="9" t="str">
+      <c r="M62" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/siltuximab/</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="28.5">
+    <row r="63" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>35</v>
       </c>
@@ -6156,12 +6161,12 @@
       <c r="I63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M63" s="9" t="str">
+      <c r="M63" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/siltuximab/</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="57">
+    <row r="64" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>31</v>
       </c>
@@ -6189,12 +6194,12 @@
       <c r="I64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M64" s="9" t="str">
+      <c r="M64" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/tocilizumab/</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="57">
+    <row r="65" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
@@ -6222,12 +6227,12 @@
       <c r="I65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M65" s="9" t="str">
+      <c r="M65" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/tocilizumab/</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="57">
+    <row r="66" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
@@ -6255,12 +6260,12 @@
       <c r="I66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M66" s="9" t="str">
+      <c r="M66" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/tocilizumab/</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="57">
+    <row r="67" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>28</v>
       </c>
@@ -6288,12 +6293,12 @@
       <c r="I67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M67" s="9" t="str">
+      <c r="M67" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/ustekinumab/</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="28.5">
+    <row r="68" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>28</v>
       </c>
@@ -6321,12 +6326,12 @@
       <c r="I68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M68" s="9" t="str">
+      <c r="M68" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/ustekinumab/</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="32.25" customHeight="1">
+    <row r="69" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -6354,12 +6359,12 @@
       <c r="I69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M69" s="9" t="str">
+      <c r="M69" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/vedolizumab/</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15" customHeight="1">
+    <row r="70" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>17</v>
       </c>
@@ -6387,12 +6392,12 @@
       <c r="I70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="M70" s="9" t="str">
+      <c r="M70" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/velmanase%20alfa/</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="75" customHeight="1">
+    <row r="71" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>43</v>
       </c>
@@ -6423,7 +6428,7 @@
       <c r="K71" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="M71" s="9" t="str">
+      <c r="M71" s="8" t="str">
         <f>"Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/" &amp; SUBSTITUTE(Mol[[#This Row],[DCI]]," ","%20") &amp; "/"</f>
         <v>Le dossier de la molécule est disponible ici --&gt; X:/Hur/da/TAA%20PHARMACIE/TAA%20Pharmacie/_Mol%C3%A9cule/_Mol%C3%A9cule/voriconazole/</v>
       </c>
@@ -6465,14 +6470,14 @@
       <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="30.75" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="30.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.75" style="2"/>
+    <col min="1" max="1" width="30.6640625" style="2"/>
     <col min="2" max="2" width="79" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="30.75" style="2"/>
+    <col min="3" max="16384" width="30.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -6480,7 +6485,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -6488,7 +6493,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -6496,7 +6501,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -6504,7 +6509,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30">
+    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -6512,7 +6517,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -6520,7 +6525,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -6528,7 +6533,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -6536,7 +6541,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -6544,7 +6549,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -6552,7 +6557,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5">
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
@@ -6560,7 +6565,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>46</v>
       </c>
@@ -6568,7 +6573,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -6576,7 +6581,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -6584,7 +6589,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -6592,7 +6597,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>340</v>
       </c>
@@ -6600,7 +6605,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>340</v>
       </c>
@@ -6608,7 +6613,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>340</v>
       </c>
@@ -6616,7 +6621,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>343</v>
       </c>
@@ -6624,7 +6629,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>343</v>
       </c>
@@ -6632,7 +6637,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>343</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -6648,7 +6653,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -6656,7 +6661,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -6664,7 +6669,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -6672,7 +6677,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -6680,7 +6685,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -6688,7 +6693,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -6696,7 +6701,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -6704,7 +6709,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
@@ -6712,7 +6717,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -6720,7 +6725,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>41</v>
       </c>
@@ -6728,7 +6733,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>41</v>
       </c>
@@ -6736,7 +6741,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
@@ -6744,7 +6749,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -6752,7 +6757,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -6760,7 +6765,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -6768,7 +6773,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>317</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>317</v>
       </c>
@@ -6784,7 +6789,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>347</v>
       </c>
@@ -6792,7 +6797,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>347</v>
       </c>
@@ -6800,7 +6805,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>347</v>
       </c>
@@ -6808,7 +6813,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>347</v>
       </c>
@@ -6816,7 +6821,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>347</v>
       </c>
@@ -6824,7 +6829,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>350</v>
       </c>
@@ -6832,7 +6837,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>350</v>
       </c>
@@ -6840,7 +6845,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>350</v>
       </c>
@@ -6848,7 +6853,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>350</v>
       </c>
@@ -6856,7 +6861,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>350</v>
       </c>
@@ -6864,7 +6869,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>350</v>
       </c>
@@ -6872,7 +6877,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.5">
+    <row r="51" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>43</v>
       </c>
@@ -6880,7 +6885,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
@@ -6888,7 +6893,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>43</v>
       </c>
@@ -6896,7 +6901,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>43</v>
       </c>
@@ -6904,7 +6909,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>43</v>
       </c>
@@ -6912,7 +6917,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>43</v>
       </c>
@@ -6920,7 +6925,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>43</v>
       </c>
@@ -6928,7 +6933,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>43</v>
       </c>
@@ -6936,7 +6941,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="29.25">
+    <row r="59" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
@@ -6944,7 +6949,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -6952,7 +6957,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.5">
+    <row r="61" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -6960,7 +6965,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -6968,7 +6973,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>26</v>
       </c>
@@ -6976,7 +6981,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="28.5">
+    <row r="64" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>26</v>
       </c>
@@ -6984,7 +6989,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="28.5">
+    <row r="65" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>32</v>
       </c>
@@ -6992,7 +6997,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="71.25">
+    <row r="66" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>315</v>
       </c>
@@ -7000,15 +7005,15 @@
         <v>832</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="57">
+    <row r="67" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="2" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="28.5">
+    <row r="68" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -7016,25 +7021,25 @@
         <v>833</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="57">
+    <row r="71" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -7042,7 +7047,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="114">
+    <row r="74" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -7058,7 +7063,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="42.75">
+    <row r="75" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -7066,42 +7071,42 @@
         <v>851</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>29</v>
       </c>
@@ -7109,7 +7114,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>29</v>
       </c>
@@ -7117,7 +7122,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>29</v>
       </c>
@@ -7125,7 +7130,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>29</v>
       </c>
@@ -7133,32 +7138,32 @@
         <v>835</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>37</v>
       </c>
@@ -7166,7 +7171,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>37</v>
       </c>
@@ -7174,12 +7179,12 @@
         <v>840</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>24</v>
       </c>
@@ -7187,12 +7192,12 @@
         <v>844</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="28.5">
+    <row r="97" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>319</v>
       </c>
@@ -7200,22 +7205,22 @@
         <v>845</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>317</v>
       </c>
@@ -7223,7 +7228,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>317</v>
       </c>
@@ -7231,7 +7236,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>317</v>
       </c>
@@ -7239,7 +7244,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>33</v>
       </c>
@@ -7247,7 +7252,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="28.5">
+    <row r="105" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>35</v>
       </c>
@@ -7255,7 +7260,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>28</v>
       </c>
@@ -7263,7 +7268,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="42.75">
+    <row r="107" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -7271,7 +7276,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>17</v>
       </c>
@@ -7308,19 +7313,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D0536F-9BE4-4B6E-B433-BF2EB3AE6AD1}">
   <dimension ref="A1:D368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
       <selection activeCell="D247" sqref="D247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="76.25" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="76.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="55.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="76.25" style="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="55.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="76.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -7334,7 +7339,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="42.75">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -7345,7 +7350,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="57">
+    <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -7359,7 +7364,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57">
+    <row r="4" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -7373,7 +7378,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="57">
+    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -7387,7 +7392,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -7401,7 +7406,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="42.75">
+    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -7415,7 +7420,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28.5">
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -7429,7 +7434,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -7440,7 +7445,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -7473,7 +7478,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
@@ -7484,7 +7489,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="42.75">
+    <row r="14" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -7498,7 +7503,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="42.75">
+    <row r="15" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -7509,7 +7514,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="71.25">
+    <row r="16" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -7523,7 +7528,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5">
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
@@ -7537,7 +7542,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="28.5">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
@@ -7551,7 +7556,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.5">
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -7565,7 +7570,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.5">
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>1</v>
       </c>
@@ -7579,21 +7584,21 @@
         <v>537</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="42.75">
+    <row r="21" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>538</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
@@ -7605,7 +7610,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
@@ -7617,7 +7622,7 @@
       </c>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
@@ -7629,7 +7634,7 @@
       </c>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>1</v>
       </c>
@@ -7641,7 +7646,7 @@
       </c>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>1</v>
       </c>
@@ -7653,7 +7658,7 @@
       </c>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>1</v>
       </c>
@@ -7665,7 +7670,7 @@
       </c>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" ht="28.5">
+    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>1</v>
       </c>
@@ -7677,7 +7682,7 @@
       </c>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" ht="85.5">
+    <row r="29" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>1</v>
       </c>
@@ -7691,7 +7696,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="71.25">
+    <row r="30" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
@@ -7705,7 +7710,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="57">
+    <row r="31" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>1</v>
       </c>
@@ -7719,7 +7724,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="71.25">
+    <row r="32" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>1</v>
       </c>
@@ -7733,7 +7738,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="99.75">
+    <row r="33" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>370</v>
       </c>
@@ -7747,7 +7752,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="71.25">
+    <row r="34" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>370</v>
       </c>
@@ -7761,7 +7766,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>370</v>
       </c>
@@ -7772,7 +7777,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="99.75">
+    <row r="36" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>315</v>
       </c>
@@ -7786,11 +7791,11 @@
         <v>853</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="99.75">
+    <row r="37" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>777</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -7800,11 +7805,11 @@
         <v>853</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="99.75">
+    <row r="38" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>778</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -7814,7 +7819,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="114">
+    <row r="39" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>315</v>
       </c>
@@ -7828,7 +7833,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="42.75">
+    <row r="40" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>372</v>
       </c>
@@ -7842,7 +7847,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="71.25">
+    <row r="41" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>372</v>
       </c>
@@ -7856,7 +7861,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>372</v>
       </c>
@@ -7867,7 +7872,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="57">
+    <row r="43" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>553</v>
       </c>
@@ -7881,7 +7886,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.5">
+    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>553</v>
       </c>
@@ -7895,21 +7900,21 @@
         <v>552</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="42.75">
+    <row r="45" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="1" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="42.75">
+    <row r="46" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>38</v>
       </c>
@@ -7923,7 +7928,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="42.75">
+    <row r="47" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>14</v>
       </c>
@@ -7937,7 +7942,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="57">
+    <row r="48" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>14</v>
       </c>
@@ -7951,7 +7956,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="128.25">
+    <row r="49" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>12</v>
       </c>
@@ -7965,7 +7970,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="128.25">
+    <row r="50" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>12</v>
       </c>
@@ -7979,7 +7984,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="99.75">
+    <row r="51" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -7993,7 +7998,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="171">
+    <row r="52" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
@@ -8007,7 +8012,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="42.75">
+    <row r="53" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -8018,7 +8023,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="71.25">
+    <row r="54" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -8032,7 +8037,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="28.5">
+    <row r="55" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -8046,7 +8051,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="114">
+    <row r="56" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28.5">
+    <row r="57" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -8074,7 +8079,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>374</v>
       </c>
@@ -8085,7 +8090,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>374</v>
       </c>
@@ -8096,7 +8101,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>374</v>
       </c>
@@ -8107,7 +8112,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>374</v>
       </c>
@@ -8118,7 +8123,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28.5">
+    <row r="62" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>374</v>
       </c>
@@ -8129,7 +8134,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>374</v>
       </c>
@@ -8140,7 +8145,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>374</v>
       </c>
@@ -8151,29 +8156,29 @@
         <v>358</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>774</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="85.5">
+    <row r="66" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="6" t="s">
         <v>775</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="57">
+    <row r="67" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>573</v>
       </c>
@@ -8187,7 +8192,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="28.5">
+    <row r="68" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>575</v>
       </c>
@@ -8201,7 +8206,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="28.5">
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>13</v>
       </c>
@@ -8212,11 +8217,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="71.25">
+    <row r="70" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="6" t="s">
         <v>773</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -8226,7 +8231,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="57">
+    <row r="71" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>578</v>
       </c>
@@ -8240,7 +8245,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="71.25">
+    <row r="72" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>16</v>
       </c>
@@ -8254,7 +8259,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="42.75">
+    <row r="73" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>584</v>
       </c>
@@ -8268,7 +8273,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>381</v>
       </c>
@@ -8279,7 +8284,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="71.25">
+    <row r="75" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>588</v>
       </c>
@@ -8293,7 +8298,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="42.75">
+    <row r="76" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>589</v>
       </c>
@@ -8307,7 +8312,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>382</v>
       </c>
@@ -8321,7 +8326,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>382</v>
       </c>
@@ -8335,7 +8340,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="42.75">
+    <row r="79" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>382</v>
       </c>
@@ -8349,7 +8354,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="42.75">
+    <row r="80" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>382</v>
       </c>
@@ -8363,7 +8368,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="42.75">
+    <row r="81" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>382</v>
       </c>
@@ -8377,7 +8382,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="42.75">
+    <row r="82" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>382</v>
       </c>
@@ -8391,7 +8396,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="57">
+    <row r="83" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>382</v>
       </c>
@@ -8405,7 +8410,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="42.75">
+    <row r="84" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>382</v>
       </c>
@@ -8419,7 +8424,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="57">
+    <row r="85" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>382</v>
       </c>
@@ -8433,7 +8438,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="57">
+    <row r="86" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>382</v>
       </c>
@@ -8447,7 +8452,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>382</v>
       </c>
@@ -8458,7 +8463,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>382</v>
       </c>
@@ -8469,7 +8474,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>382</v>
       </c>
@@ -8480,7 +8485,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>382</v>
       </c>
@@ -8491,7 +8496,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>382</v>
       </c>
@@ -8502,7 +8507,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>382</v>
       </c>
@@ -8513,7 +8518,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>382</v>
       </c>
@@ -8524,7 +8529,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>382</v>
       </c>
@@ -8535,7 +8540,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>382</v>
       </c>
@@ -8546,7 +8551,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>382</v>
       </c>
@@ -8557,7 +8562,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>382</v>
       </c>
@@ -8568,7 +8573,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>382</v>
       </c>
@@ -8579,7 +8584,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>382</v>
       </c>
@@ -8590,7 +8595,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>382</v>
       </c>
@@ -8601,7 +8606,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>382</v>
       </c>
@@ -8612,7 +8617,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>382</v>
       </c>
@@ -8623,7 +8628,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>382</v>
       </c>
@@ -8634,7 +8639,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>382</v>
       </c>
@@ -8645,7 +8650,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="28.5">
+    <row r="105" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>382</v>
       </c>
@@ -8656,7 +8661,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>382</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>382</v>
       </c>
@@ -8678,7 +8683,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>382</v>
       </c>
@@ -8689,7 +8694,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>382</v>
       </c>
@@ -8700,7 +8705,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>382</v>
       </c>
@@ -8711,7 +8716,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>382</v>
       </c>
@@ -8722,7 +8727,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>382</v>
       </c>
@@ -8733,7 +8738,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>382</v>
       </c>
@@ -8744,7 +8749,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>382</v>
       </c>
@@ -8755,7 +8760,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>382</v>
       </c>
@@ -8766,7 +8771,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>382</v>
       </c>
@@ -8777,7 +8782,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>382</v>
       </c>
@@ -8788,7 +8793,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>382</v>
       </c>
@@ -8799,7 +8804,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>382</v>
       </c>
@@ -8810,7 +8815,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>382</v>
       </c>
@@ -8821,7 +8826,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>382</v>
       </c>
@@ -8832,7 +8837,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>382</v>
       </c>
@@ -8843,7 +8848,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>382</v>
       </c>
@@ -8854,7 +8859,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>382</v>
       </c>
@@ -8865,7 +8870,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>382</v>
       </c>
@@ -8876,7 +8881,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>382</v>
       </c>
@@ -8887,7 +8892,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>382</v>
       </c>
@@ -8898,7 +8903,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>382</v>
       </c>
@@ -8909,7 +8914,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="42.75">
+    <row r="129" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>7</v>
       </c>
@@ -8923,7 +8928,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="42.75">
+    <row r="130" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>7</v>
       </c>
@@ -8937,7 +8942,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="42.75">
+    <row r="131" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>7</v>
       </c>
@@ -8951,7 +8956,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="44.25">
+    <row r="132" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>7</v>
       </c>
@@ -8965,7 +8970,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="42.75">
+    <row r="133" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>7</v>
       </c>
@@ -8979,7 +8984,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>7</v>
       </c>
@@ -8990,7 +8995,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="85.5">
+    <row r="135" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>634</v>
       </c>
@@ -9004,7 +9009,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="42.75">
+    <row r="136" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>0</v>
       </c>
@@ -9018,7 +9023,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="185.25">
+    <row r="137" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>27</v>
       </c>
@@ -9032,7 +9037,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="99.75">
+    <row r="138" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>41</v>
       </c>
@@ -9046,7 +9051,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="85.5">
+    <row r="139" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>41</v>
       </c>
@@ -9060,7 +9065,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="85.5">
+    <row r="140" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>41</v>
       </c>
@@ -9074,7 +9079,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="85.5">
+    <row r="141" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>41</v>
       </c>
@@ -9088,7 +9093,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="270.75">
+    <row r="142" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>20</v>
       </c>
@@ -9102,7 +9107,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="270.75">
+    <row r="143" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>20</v>
       </c>
@@ -9116,7 +9121,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="270.75">
+    <row r="144" spans="1:4" ht="304" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>20</v>
       </c>
@@ -9130,7 +9135,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>20</v>
       </c>
@@ -9141,7 +9146,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>20</v>
       </c>
@@ -9152,7 +9157,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="85.5">
+    <row r="147" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>402</v>
       </c>
@@ -9166,7 +9171,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="128.25">
+    <row r="148" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>402</v>
       </c>
@@ -9180,7 +9185,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>402</v>
       </c>
@@ -9191,7 +9196,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28.5">
+    <row r="150" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>34</v>
       </c>
@@ -9205,7 +9210,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="42.75">
+    <row r="151" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>34</v>
       </c>
@@ -9219,7 +9224,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>34</v>
       </c>
@@ -9230,7 +9235,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="42.75">
+    <row r="153" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>651</v>
       </c>
@@ -9244,7 +9249,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="57">
+    <row r="154" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>651</v>
       </c>
@@ -9258,18 +9263,18 @@
         <v>654</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="42.75">
+    <row r="155" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="6" t="s">
         <v>771</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="99.75">
+    <row r="156" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>319</v>
       </c>
@@ -9283,7 +9288,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="99.75">
+    <row r="157" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>319</v>
       </c>
@@ -9297,7 +9302,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="42.75">
+    <row r="158" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>25</v>
       </c>
@@ -9311,7 +9316,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="57">
+    <row r="159" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>657</v>
       </c>
@@ -9325,7 +9330,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="71.25">
+    <row r="160" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>657</v>
       </c>
@@ -9339,7 +9344,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="85.5">
+    <row r="161" spans="1:4" ht="96" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>658</v>
       </c>
@@ -9353,7 +9358,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="114">
+    <row r="162" spans="1:4" ht="128" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>658</v>
       </c>
@@ -9367,7 +9372,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="142.5">
+    <row r="163" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>667</v>
       </c>
@@ -9381,7 +9386,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="142.5">
+    <row r="164" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>667</v>
       </c>
@@ -9395,7 +9400,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="142.5">
+    <row r="165" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>667</v>
       </c>
@@ -9409,7 +9414,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="142.5">
+    <row r="166" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>667</v>
       </c>
@@ -9423,7 +9428,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="28.5">
+    <row r="167" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>667</v>
       </c>
@@ -9434,7 +9439,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>317</v>
       </c>
@@ -9445,7 +9450,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>317</v>
       </c>
@@ -9456,18 +9461,18 @@
         <v>510</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="57">
+    <row r="170" spans="1:4" ht="60" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>763</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="71.25">
+    <row r="171" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>33</v>
       </c>
@@ -9478,7 +9483,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="28.5">
+    <row r="172" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>33</v>
       </c>
@@ -9489,7 +9494,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="57">
+    <row r="173" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>33</v>
       </c>
@@ -9500,7 +9505,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="71.25">
+    <row r="174" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>347</v>
       </c>
@@ -9514,7 +9519,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="42.75">
+    <row r="175" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>347</v>
       </c>
@@ -9528,7 +9533,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="28.5">
+    <row r="176" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>347</v>
       </c>
@@ -9542,7 +9547,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>347</v>
       </c>
@@ -9553,7 +9558,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>347</v>
       </c>
@@ -9564,7 +9569,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>347</v>
       </c>
@@ -9575,7 +9580,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="59.25" customHeight="1">
+    <row r="180" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>347</v>
       </c>
@@ -9586,7 +9591,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>347</v>
       </c>
@@ -9597,7 +9602,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>347</v>
       </c>
@@ -9608,7 +9613,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>347</v>
       </c>
@@ -9619,7 +9624,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>347</v>
       </c>
@@ -9630,7 +9635,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>347</v>
       </c>
@@ -9641,7 +9646,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>347</v>
       </c>
@@ -9652,7 +9657,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>347</v>
       </c>
@@ -9663,7 +9668,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>347</v>
       </c>
@@ -9674,7 +9679,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>347</v>
       </c>
@@ -9685,7 +9690,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>347</v>
       </c>
@@ -9696,7 +9701,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>347</v>
       </c>
@@ -9707,7 +9712,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>347</v>
       </c>
@@ -9718,7 +9723,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>347</v>
       </c>
@@ -9729,7 +9734,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>347</v>
       </c>
@@ -9740,7 +9745,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>347</v>
       </c>
@@ -9751,7 +9756,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>347</v>
       </c>
@@ -9762,7 +9767,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>347</v>
       </c>
@@ -9773,7 +9778,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>347</v>
       </c>
@@ -9784,7 +9789,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>347</v>
       </c>
@@ -9795,7 +9800,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>347</v>
       </c>
@@ -9806,7 +9811,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>347</v>
       </c>
@@ -9817,7 +9822,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>347</v>
       </c>
@@ -9828,7 +9833,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>347</v>
       </c>
@@ -9839,7 +9844,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>347</v>
       </c>
@@ -9850,7 +9855,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>347</v>
       </c>
@@ -9861,7 +9866,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>347</v>
       </c>
@@ -9872,7 +9877,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>347</v>
       </c>
@@ -9883,7 +9888,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>347</v>
       </c>
@@ -9894,7 +9899,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="209" spans="1:3">
+    <row r="209" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>347</v>
       </c>
@@ -9905,7 +9910,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="22.5" customHeight="1">
+    <row r="210" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>347</v>
       </c>
@@ -9916,7 +9921,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="211" spans="1:3">
+    <row r="211" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>347</v>
       </c>
@@ -9927,7 +9932,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
+    <row r="212" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>347</v>
       </c>
@@ -9938,7 +9943,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>347</v>
       </c>
@@ -9949,7 +9954,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>347</v>
       </c>
@@ -9960,7 +9965,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>347</v>
       </c>
@@ -9971,7 +9976,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>347</v>
       </c>
@@ -9982,7 +9987,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>347</v>
       </c>
@@ -9993,7 +9998,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>347</v>
       </c>
@@ -10004,7 +10009,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="219" spans="1:3">
+    <row r="219" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>347</v>
       </c>
@@ -10015,7 +10020,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="220" spans="1:3">
+    <row r="220" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>347</v>
       </c>
@@ -10026,7 +10031,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
+    <row r="221" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>347</v>
       </c>
@@ -10037,7 +10042,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="222" spans="1:3">
+    <row r="222" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>347</v>
       </c>
@@ -10048,7 +10053,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="223" spans="1:3">
+    <row r="223" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>347</v>
       </c>
@@ -10059,7 +10064,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="224" spans="1:3">
+    <row r="224" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>347</v>
       </c>
@@ -10070,7 +10075,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="225" spans="1:3">
+    <row r="225" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>347</v>
       </c>
@@ -10081,7 +10086,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
+    <row r="226" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>347</v>
       </c>
@@ -10092,7 +10097,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="227" spans="1:3">
+    <row r="227" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>347</v>
       </c>
@@ -10103,7 +10108,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="228" spans="1:3">
+    <row r="228" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>347</v>
       </c>
@@ -10114,7 +10119,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>347</v>
       </c>
@@ -10125,7 +10130,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>347</v>
       </c>
@@ -10136,7 +10141,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>347</v>
       </c>
@@ -10147,7 +10152,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>347</v>
       </c>
@@ -10158,7 +10163,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>347</v>
       </c>
@@ -10169,7 +10174,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="234" spans="1:3">
+    <row r="234" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>347</v>
       </c>
@@ -10180,7 +10185,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>347</v>
       </c>
@@ -10191,7 +10196,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="236" spans="1:3">
+    <row r="236" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>347</v>
       </c>
@@ -10202,7 +10207,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="237" spans="1:3">
+    <row r="237" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>347</v>
       </c>
@@ -10213,7 +10218,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="238" spans="1:3">
+    <row r="238" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>347</v>
       </c>
@@ -10224,7 +10229,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="239" spans="1:3">
+    <row r="239" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>347</v>
       </c>
@@ -10235,7 +10240,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="28.5">
+    <row r="240" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>347</v>
       </c>
@@ -10246,7 +10251,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="71.25">
+    <row r="241" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>347</v>
       </c>
@@ -10257,7 +10262,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="28.5">
+    <row r="242" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>347</v>
       </c>
@@ -10268,7 +10273,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>347</v>
       </c>
@@ -10279,7 +10284,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>347</v>
       </c>
@@ -10290,7 +10295,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="245" spans="1:3">
+    <row r="245" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>347</v>
       </c>
@@ -10301,7 +10306,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>347</v>
       </c>
@@ -10312,7 +10317,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>347</v>
       </c>
@@ -10323,7 +10328,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>347</v>
       </c>
@@ -10334,7 +10339,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="249" spans="1:3">
+    <row r="249" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>347</v>
       </c>
@@ -10345,7 +10350,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>347</v>
       </c>
@@ -10356,7 +10361,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>347</v>
       </c>
@@ -10367,7 +10372,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>347</v>
       </c>
@@ -10378,7 +10383,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>347</v>
       </c>
@@ -10389,7 +10394,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>347</v>
       </c>
@@ -10400,7 +10405,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>347</v>
       </c>
@@ -10411,7 +10416,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>347</v>
       </c>
@@ -10422,7 +10427,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>347</v>
       </c>
@@ -10433,7 +10438,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>347</v>
       </c>
@@ -10444,7 +10449,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>347</v>
       </c>
@@ -10455,7 +10460,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>347</v>
       </c>
@@ -10466,7 +10471,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>347</v>
       </c>
@@ -10477,7 +10482,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>347</v>
       </c>
@@ -10488,7 +10493,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>347</v>
       </c>
@@ -10499,7 +10504,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>347</v>
       </c>
@@ -10510,7 +10515,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>347</v>
       </c>
@@ -10521,7 +10526,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>347</v>
       </c>
@@ -10532,7 +10537,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>347</v>
       </c>
@@ -10543,7 +10548,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>347</v>
       </c>
@@ -10557,7 +10562,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>347</v>
       </c>
@@ -10568,7 +10573,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>347</v>
       </c>
@@ -10579,7 +10584,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>347</v>
       </c>
@@ -10590,7 +10595,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>347</v>
       </c>
@@ -10601,7 +10606,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>347</v>
       </c>
@@ -10612,7 +10617,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>347</v>
       </c>
@@ -10623,7 +10628,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>347</v>
       </c>
@@ -10634,7 +10639,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>347</v>
       </c>
@@ -10645,7 +10650,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>347</v>
       </c>
@@ -10656,7 +10661,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="42.75">
+    <row r="278" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>716</v>
       </c>
@@ -10670,7 +10675,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>716</v>
       </c>
@@ -10681,7 +10686,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>467</v>
       </c>
@@ -10692,7 +10697,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>469</v>
       </c>
@@ -10703,7 +10708,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>471</v>
       </c>
@@ -10714,7 +10719,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>473</v>
       </c>
@@ -10725,7 +10730,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>474</v>
       </c>
@@ -10736,7 +10741,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="42.75">
+    <row r="285" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>350</v>
       </c>
@@ -10750,7 +10755,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="71.25">
+    <row r="286" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>350</v>
       </c>
@@ -10764,7 +10769,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="57">
+    <row r="287" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>350</v>
       </c>
@@ -10778,7 +10783,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="57">
+    <row r="288" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>350</v>
       </c>
@@ -10792,7 +10797,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="57">
+    <row r="289" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>350</v>
       </c>
@@ -10806,7 +10811,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="71.25">
+    <row r="290" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>350</v>
       </c>
@@ -10820,7 +10825,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>350</v>
       </c>
@@ -10831,7 +10836,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>350</v>
       </c>
@@ -10842,7 +10847,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>350</v>
       </c>
@@ -10853,7 +10858,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>350</v>
       </c>
@@ -10864,7 +10869,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>350</v>
       </c>
@@ -10875,7 +10880,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>350</v>
       </c>
@@ -10886,7 +10891,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>350</v>
       </c>
@@ -10897,7 +10902,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>350</v>
       </c>
@@ -10908,7 +10913,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>350</v>
       </c>
@@ -10919,7 +10924,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>350</v>
       </c>
@@ -10930,7 +10935,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>350</v>
       </c>
@@ -10941,7 +10946,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>350</v>
       </c>
@@ -10952,7 +10957,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>350</v>
       </c>
@@ -10963,7 +10968,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>350</v>
       </c>
@@ -10974,7 +10979,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="305" spans="1:3">
+    <row r="305" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>350</v>
       </c>
@@ -10985,7 +10990,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="306" spans="1:3">
+    <row r="306" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>350</v>
       </c>
@@ -10996,7 +11001,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="307" spans="1:3">
+    <row r="307" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>350</v>
       </c>
@@ -11007,7 +11012,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="28.5">
+    <row r="308" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>350</v>
       </c>
@@ -11018,7 +11023,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="309" spans="1:3">
+    <row r="309" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>350</v>
       </c>
@@ -11029,7 +11034,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="310" spans="1:3">
+    <row r="310" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>350</v>
       </c>
@@ -11040,7 +11045,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="311" spans="1:3">
+    <row r="311" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>350</v>
       </c>
@@ -11051,7 +11056,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="312" spans="1:3">
+    <row r="312" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>350</v>
       </c>
@@ -11062,7 +11067,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="313" spans="1:3">
+    <row r="313" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>350</v>
       </c>
@@ -11073,7 +11078,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="314" spans="1:3">
+    <row r="314" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>350</v>
       </c>
@@ -11084,7 +11089,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="315" spans="1:3">
+    <row r="315" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>350</v>
       </c>
@@ -11095,7 +11100,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="316" spans="1:3">
+    <row r="316" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>350</v>
       </c>
@@ -11106,7 +11111,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="317" spans="1:3">
+    <row r="317" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>350</v>
       </c>
@@ -11117,7 +11122,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="318" spans="1:3">
+    <row r="318" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>350</v>
       </c>
@@ -11128,7 +11133,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="319" spans="1:3">
+    <row r="319" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>350</v>
       </c>
@@ -11139,7 +11144,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="320" spans="1:3">
+    <row r="320" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>350</v>
       </c>
@@ -11150,7 +11155,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>350</v>
       </c>
@@ -11161,7 +11166,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>350</v>
       </c>
@@ -11172,7 +11177,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="28.5">
+    <row r="323" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>350</v>
       </c>
@@ -11183,7 +11188,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>487</v>
       </c>
@@ -11194,7 +11199,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="71.25">
+    <row r="325" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>494</v>
       </c>
@@ -11208,7 +11213,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="85.5">
+    <row r="326" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>494</v>
       </c>
@@ -11222,7 +11227,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>494</v>
       </c>
@@ -11233,7 +11238,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>494</v>
       </c>
@@ -11244,7 +11249,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>494</v>
       </c>
@@ -11255,7 +11260,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="99.75">
+    <row r="330" spans="1:4" ht="112" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>494</v>
       </c>
@@ -11266,7 +11271,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="57">
+    <row r="331" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>494</v>
       </c>
@@ -11277,7 +11282,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="28.5">
+    <row r="332" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>494</v>
       </c>
@@ -11288,7 +11293,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="28.5">
+    <row r="333" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>494</v>
       </c>
@@ -11299,7 +11304,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>494</v>
       </c>
@@ -11310,7 +11315,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>494</v>
       </c>
@@ -11321,7 +11326,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>494</v>
       </c>
@@ -11332,7 +11337,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>494</v>
       </c>
@@ -11343,7 +11348,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>494</v>
       </c>
@@ -11354,7 +11359,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="71.25">
+    <row r="339" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>498</v>
       </c>
@@ -11368,7 +11373,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="71.25">
+    <row r="340" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>498</v>
       </c>
@@ -11382,7 +11387,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="71.25">
+    <row r="341" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>498</v>
       </c>
@@ -11396,7 +11401,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>498</v>
       </c>
@@ -11407,7 +11412,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>498</v>
       </c>
@@ -11418,7 +11423,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>498</v>
       </c>
@@ -11429,7 +11434,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="42.75">
+    <row r="345" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>631</v>
       </c>
@@ -11443,7 +11448,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>501</v>
       </c>
@@ -11454,7 +11459,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="185.25">
+    <row r="347" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>503</v>
       </c>
@@ -11468,7 +11473,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="228">
+    <row r="348" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>503</v>
       </c>
@@ -11482,7 +11487,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="228">
+    <row r="349" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>503</v>
       </c>
@@ -11496,7 +11501,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="228">
+    <row r="350" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>503</v>
       </c>
@@ -11510,7 +11515,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="228">
+    <row r="351" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>503</v>
       </c>
@@ -11524,7 +11529,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>503</v>
       </c>
@@ -11535,7 +11540,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>503</v>
       </c>
@@ -11546,7 +11551,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>506</v>
       </c>
@@ -11557,10 +11562,10 @@
         <v>358</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B355"/>
     </row>
-    <row r="360" spans="1:4" ht="228">
+    <row r="360" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>503</v>
       </c>
@@ -11574,7 +11579,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="185.25">
+    <row r="361" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>503</v>
       </c>
@@ -11588,7 +11593,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="228">
+    <row r="362" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>503</v>
       </c>
@@ -11602,7 +11607,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="185.25">
+    <row r="363" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>503</v>
       </c>
@@ -11616,7 +11621,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="228">
+    <row r="364" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>503</v>
       </c>
@@ -11630,11 +11635,11 @@
         <v>796</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="71.25">
+    <row r="365" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A365" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B365" s="7" t="s">
+      <c r="B365" s="6" t="s">
         <v>816</v>
       </c>
       <c r="C365" s="1" t="s">
@@ -11644,11 +11649,11 @@
         <v>530</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="72" customHeight="1">
+    <row r="366" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B366" s="7" t="s">
+      <c r="B366" s="6" t="s">
         <v>817</v>
       </c>
       <c r="C366" s="1" t="s">
@@ -11658,7 +11663,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="71.25">
+    <row r="367" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A367" s="4" t="s">
         <v>1</v>
       </c>
@@ -11672,7 +11677,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="78" customHeight="1">
+    <row r="368" spans="1:4" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
         <v>1</v>
       </c>
